--- a/data_raw/map_for_compilation_OM17.xlsx
+++ b/data_raw/map_for_compilation_OM17.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melo.d/Desktop/Research/Oman_fieldwork/Samail_16S_compilation/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382DCDDA-0177-DF4E-B9E5-51CE67BBB655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE86CAF6-6672-974D-8953-5B6339BA03CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20660" xr2:uid="{8FA938D1-D892-E848-A49F-8DF12B7A5192}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="296">
   <si>
     <t>year_sampled</t>
   </si>
@@ -377,16 +377,10 @@
     <t>CATAAGGGAGGC</t>
   </si>
   <si>
-    <t>OM17_BT1B_core_DNA2</t>
-  </si>
-  <si>
     <t>BT1B.3</t>
   </si>
   <si>
     <t>TGTGTTACTCCT</t>
-  </si>
-  <si>
-    <t>OM17_BT1B_core_DNA3</t>
   </si>
   <si>
     <t>BT1BCont.1</t>
@@ -1324,10 +1318,10 @@
   <dimension ref="A1:AG128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1412,19 +1406,19 @@
         <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H2" s="9">
         <v>2017</v>
@@ -1442,7 +1436,7 @@
         <v>59</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>59</v>
@@ -1466,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>59</v>
@@ -1480,19 +1474,19 @@
         <v>27</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H3" s="9">
         <v>2017</v>
@@ -1510,7 +1504,7 @@
         <v>59</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>59</v>
@@ -1534,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V3" s="4" t="s">
         <v>59</v>
@@ -1548,19 +1542,19 @@
         <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H4" s="9">
         <v>2017</v>
@@ -1578,7 +1572,7 @@
         <v>59</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>59</v>
@@ -1602,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V4" s="4" t="s">
         <v>59</v>
@@ -1616,19 +1610,19 @@
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H5" s="9">
         <v>2017</v>
@@ -1646,7 +1640,7 @@
         <v>59</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>59</v>
@@ -1670,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V5" s="4" t="s">
         <v>59</v>
@@ -1684,19 +1678,19 @@
         <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H6" s="9">
         <v>2017</v>
@@ -1714,7 +1708,7 @@
         <v>59</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>59</v>
@@ -1738,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>59</v>
@@ -1752,19 +1746,19 @@
         <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H7" s="9">
         <v>2017</v>
@@ -1782,7 +1776,7 @@
         <v>59</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>59</v>
@@ -1806,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>59</v>
@@ -1820,19 +1814,19 @@
         <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H8" s="9">
         <v>2017</v>
@@ -1850,7 +1844,7 @@
         <v>59</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>59</v>
@@ -1874,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V8" s="4" t="s">
         <v>59</v>
@@ -1888,13 +1882,13 @@
         <v>38</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>25</v>
@@ -1918,7 +1912,7 @@
         <v>59</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>59</v>
@@ -1942,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="V9" s="4">
         <v>9.4499999999999993</v>
@@ -1956,13 +1950,13 @@
         <v>40</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>
@@ -1986,7 +1980,7 @@
         <v>59</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>59</v>
@@ -2010,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="V10" s="4">
         <v>9.4499999999999993</v>
@@ -2024,13 +2018,13 @@
         <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>25</v>
@@ -2054,7 +2048,7 @@
         <v>59</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>59</v>
@@ -2078,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="V11" s="4">
         <v>9.4499999999999993</v>
@@ -2092,13 +2086,13 @@
         <v>42</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>25</v>
@@ -2122,7 +2116,7 @@
         <v>59</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>59</v>
@@ -2146,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="V12" s="4">
         <v>9.4499999999999993</v>
@@ -2160,13 +2154,13 @@
         <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>25</v>
@@ -2190,7 +2184,7 @@
         <v>59</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>59</v>
@@ -2214,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="V13" s="4">
         <v>9.4499999999999993</v>
@@ -2228,13 +2222,13 @@
         <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>25</v>
@@ -2258,7 +2252,7 @@
         <v>59</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>59</v>
@@ -2282,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="V14" s="4">
         <v>9.4499999999999993</v>
@@ -2296,13 +2290,13 @@
         <v>45</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>25</v>
@@ -2326,7 +2320,7 @@
         <v>59</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>59</v>
@@ -2350,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="V15" s="4">
         <v>9.4499999999999993</v>
@@ -2364,19 +2358,19 @@
         <v>47</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H16" s="9">
         <v>2017</v>
@@ -2394,7 +2388,7 @@
         <v>59</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>59</v>
@@ -2418,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="V16" s="4">
         <v>7.7</v>
@@ -2432,19 +2426,19 @@
         <v>49</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H17" s="9">
         <v>2017</v>
@@ -2462,7 +2456,7 @@
         <v>59</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>59</v>
@@ -2486,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="V17" s="4">
         <v>7.7</v>
@@ -2500,19 +2494,19 @@
         <v>51</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H18" s="9">
         <v>2017</v>
@@ -2530,7 +2524,7 @@
         <v>59</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>59</v>
@@ -2554,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="U18" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="V18" s="4">
         <v>7.7</v>
@@ -2579,19 +2573,19 @@
         <v>53</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H19" s="9">
         <v>2017</v>
@@ -2609,7 +2603,7 @@
         <v>59</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>59</v>
@@ -2633,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="U19" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="V19" s="4">
         <v>7.7</v>
@@ -2658,13 +2652,13 @@
         <v>54</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>25</v>
@@ -2688,7 +2682,7 @@
         <v>59</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>59</v>
@@ -2712,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V20" s="4">
         <v>5.18</v>
@@ -2726,13 +2720,13 @@
         <v>56</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>25</v>
@@ -2756,7 +2750,7 @@
         <v>59</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>59</v>
@@ -2780,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="U21" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V21" s="4">
         <v>5.18</v>
@@ -2794,19 +2788,19 @@
         <v>58</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H22" s="9">
         <v>2017</v>
@@ -2862,19 +2856,19 @@
         <v>61</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H23" s="9">
         <v>2017</v>
@@ -2930,19 +2924,19 @@
         <v>63</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H24" s="9">
         <v>2017</v>
@@ -2998,19 +2992,19 @@
         <v>65</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H25" s="9">
         <v>2017</v>
@@ -3066,19 +3060,19 @@
         <v>67</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H26" s="9">
         <v>2017</v>
@@ -3134,13 +3128,13 @@
         <v>68</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>25</v>
@@ -3164,7 +3158,7 @@
         <v>59</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>59</v>
@@ -3188,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="U27" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V27" s="4">
         <v>7.5</v>
@@ -3202,13 +3196,13 @@
         <v>70</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>25</v>
@@ -3232,7 +3226,7 @@
         <v>59</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>59</v>
@@ -3256,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="U28" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V28" s="4">
         <v>7.5</v>
@@ -3270,13 +3264,13 @@
         <v>71</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>25</v>
@@ -3300,7 +3294,7 @@
         <v>59</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>59</v>
@@ -3324,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="U29" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V29" s="4">
         <v>7.5</v>
@@ -3338,13 +3332,13 @@
         <v>72</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>25</v>
@@ -3368,7 +3362,7 @@
         <v>59</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>59</v>
@@ -3392,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="U30" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V30" s="4">
         <v>7.5</v>
@@ -3406,13 +3400,13 @@
         <v>73</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>25</v>
@@ -3436,7 +3430,7 @@
         <v>59</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>59</v>
@@ -3460,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="U31" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="V31" s="4">
         <v>16.2</v>
@@ -3474,13 +3468,13 @@
         <v>75</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>25</v>
@@ -3504,7 +3498,7 @@
         <v>59</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>59</v>
@@ -3528,7 +3522,7 @@
         <v>1</v>
       </c>
       <c r="U32" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="V32" s="4">
         <v>16.2</v>
@@ -3542,13 +3536,13 @@
         <v>76</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>25</v>
@@ -3572,7 +3566,7 @@
         <v>59</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>59</v>
@@ -3596,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="U33" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="V33" s="4">
         <v>16.2</v>
@@ -3610,13 +3604,13 @@
         <v>77</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>25</v>
@@ -3640,7 +3634,7 @@
         <v>59</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>59</v>
@@ -3664,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="U34" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="V34" s="4">
         <v>35</v>
@@ -3678,13 +3672,13 @@
         <v>79</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>25</v>
@@ -3708,7 +3702,7 @@
         <v>59</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>59</v>
@@ -3732,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="U35" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="V35" s="4">
         <v>35</v>
@@ -3746,13 +3740,13 @@
         <v>80</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>25</v>
@@ -3776,7 +3770,7 @@
         <v>59</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>59</v>
@@ -3800,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="U36" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="V36" s="4">
         <v>35</v>
@@ -3814,19 +3808,19 @@
         <v>82</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H37" s="10">
         <v>2017</v>
@@ -3882,19 +3876,19 @@
         <v>84</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H38" s="10">
         <v>2017</v>
@@ -3950,19 +3944,19 @@
         <v>86</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H39" s="10">
         <v>2017</v>
@@ -4018,19 +4012,19 @@
         <v>88</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H40" s="10">
         <v>2017</v>
@@ -4086,19 +4080,19 @@
         <v>90</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H41" s="10">
         <v>2017</v>
@@ -4154,19 +4148,19 @@
         <v>92</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H42" s="10">
         <v>2017</v>
@@ -4222,13 +4216,13 @@
         <v>94</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>25</v>
@@ -4290,13 +4284,13 @@
         <v>96</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>25</v>
@@ -4358,13 +4352,13 @@
         <v>98</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>25</v>
@@ -4426,13 +4420,13 @@
         <v>100</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>25</v>
@@ -4494,13 +4488,13 @@
         <v>103</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>25</v>
@@ -4562,13 +4556,13 @@
         <v>105</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>25</v>
@@ -4630,13 +4624,13 @@
         <v>107</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>25</v>
@@ -4698,19 +4692,19 @@
         <v>109</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H50" s="10">
         <v>2017</v>
@@ -4766,19 +4760,19 @@
         <v>111</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H51" s="10">
         <v>2017</v>
@@ -4834,19 +4828,19 @@
         <v>113</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>114</v>
+        <v>273</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H52" s="10">
         <v>2017</v>
@@ -4896,25 +4890,25 @@
     </row>
     <row r="53" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="C53" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H53" s="10">
         <v>2017</v>
@@ -4964,25 +4958,25 @@
     </row>
     <row r="54" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H54" s="10">
         <v>2017</v>
@@ -5032,25 +5026,25 @@
     </row>
     <row r="55" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H55" s="10">
         <v>2017</v>
@@ -5100,25 +5094,25 @@
     </row>
     <row r="56" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H56" s="10">
         <v>2017</v>
@@ -5168,19 +5162,19 @@
     </row>
     <row r="57" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>25</v>
@@ -5236,19 +5230,19 @@
     </row>
     <row r="58" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>25</v>
@@ -5304,19 +5298,19 @@
     </row>
     <row r="59" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>25</v>
@@ -5372,19 +5366,19 @@
     </row>
     <row r="60" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>25</v>
@@ -5440,19 +5434,19 @@
     </row>
     <row r="61" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>25</v>
@@ -5508,19 +5502,19 @@
     </row>
     <row r="62" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>25</v>
@@ -5576,19 +5570,19 @@
     </row>
     <row r="63" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>25</v>
@@ -5644,19 +5638,19 @@
     </row>
     <row r="64" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>25</v>
@@ -5712,19 +5706,19 @@
     </row>
     <row r="65" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>25</v>
@@ -5780,25 +5774,25 @@
     </row>
     <row r="66" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="G66" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H66" s="9">
         <v>2017</v>
@@ -5816,7 +5810,7 @@
         <v>59</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N66" s="4" t="s">
         <v>59</v>
@@ -5840,7 +5834,7 @@
         <v>1</v>
       </c>
       <c r="U66" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V66" s="4" t="s">
         <v>59</v>
@@ -5848,25 +5842,25 @@
     </row>
     <row r="67" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F67" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H67" s="9">
         <v>2017</v>
@@ -5884,7 +5878,7 @@
         <v>59</v>
       </c>
       <c r="M67" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N67" s="4" t="s">
         <v>59</v>
@@ -5908,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="U67" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V67" s="4" t="s">
         <v>59</v>
@@ -5916,25 +5910,25 @@
     </row>
     <row r="68" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F68" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H68" s="9">
         <v>2017</v>
@@ -5952,7 +5946,7 @@
         <v>59</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N68" s="4" t="s">
         <v>59</v>
@@ -5976,7 +5970,7 @@
         <v>1</v>
       </c>
       <c r="U68" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V68" s="4" t="s">
         <v>59</v>
@@ -5984,25 +5978,25 @@
     </row>
     <row r="69" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C69" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F69" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H69" s="9">
         <v>2017</v>
@@ -6020,7 +6014,7 @@
         <v>59</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N69" s="4" t="s">
         <v>59</v>
@@ -6044,7 +6038,7 @@
         <v>1</v>
       </c>
       <c r="U69" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V69" s="4" t="s">
         <v>59</v>
@@ -6052,25 +6046,25 @@
     </row>
     <row r="70" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F70" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H70" s="9">
         <v>2017</v>
@@ -6088,7 +6082,7 @@
         <v>59</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N70" s="4" t="s">
         <v>59</v>
@@ -6112,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="U70" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V70" s="4" t="s">
         <v>59</v>
@@ -6120,25 +6114,25 @@
     </row>
     <row r="71" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F71" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H71" s="9">
         <v>2017</v>
@@ -6156,7 +6150,7 @@
         <v>59</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N71" s="4" t="s">
         <v>59</v>
@@ -6180,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="U71" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V71" s="4" t="s">
         <v>59</v>
@@ -6188,25 +6182,25 @@
     </row>
     <row r="72" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F72" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H72" s="9">
         <v>2017</v>
@@ -6224,7 +6218,7 @@
         <v>59</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N72" s="4" t="s">
         <v>59</v>
@@ -6248,7 +6242,7 @@
         <v>1</v>
       </c>
       <c r="U72" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V72" s="4" t="s">
         <v>59</v>
@@ -6256,22 +6250,22 @@
     </row>
     <row r="73" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C73" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F73" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>39</v>
@@ -6292,7 +6286,7 @@
         <v>59</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N73" s="4" t="s">
         <v>59</v>
@@ -6316,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="U73" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="V73" s="4">
         <v>9.4499999999999993</v>
@@ -6324,22 +6318,22 @@
     </row>
     <row r="74" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C74" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F74" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>39</v>
@@ -6360,7 +6354,7 @@
         <v>59</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N74" s="4" t="s">
         <v>59</v>
@@ -6384,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="U74" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="V74" s="4">
         <v>9.4499999999999993</v>
@@ -6392,22 +6386,22 @@
     </row>
     <row r="75" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F75" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>39</v>
@@ -6428,7 +6422,7 @@
         <v>59</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N75" s="4" t="s">
         <v>59</v>
@@ -6452,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="U75" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="V75" s="4">
         <v>9.4499999999999993</v>
@@ -6460,22 +6454,22 @@
     </row>
     <row r="76" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C76" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F76" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>39</v>
@@ -6496,7 +6490,7 @@
         <v>59</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N76" s="4" t="s">
         <v>59</v>
@@ -6520,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="U76" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="V76" s="4">
         <v>9.4499999999999993</v>
@@ -6528,22 +6522,22 @@
     </row>
     <row r="77" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C77" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F77" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>39</v>
@@ -6564,7 +6558,7 @@
         <v>59</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N77" s="4" t="s">
         <v>59</v>
@@ -6588,7 +6582,7 @@
         <v>1</v>
       </c>
       <c r="U77" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="V77" s="4">
         <v>9.4499999999999993</v>
@@ -6596,22 +6590,22 @@
     </row>
     <row r="78" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C78" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F78" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>39</v>
@@ -6632,7 +6626,7 @@
         <v>59</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N78" s="4" t="s">
         <v>59</v>
@@ -6656,7 +6650,7 @@
         <v>1</v>
       </c>
       <c r="U78" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="V78" s="4">
         <v>9.4499999999999993</v>
@@ -6664,22 +6658,22 @@
     </row>
     <row r="79" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C79" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F79" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>39</v>
@@ -6700,7 +6694,7 @@
         <v>59</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N79" s="4" t="s">
         <v>59</v>
@@ -6724,7 +6718,7 @@
         <v>1</v>
       </c>
       <c r="U79" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="V79" s="4">
         <v>9.4499999999999993</v>
@@ -6732,25 +6726,25 @@
     </row>
     <row r="80" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C80" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F80" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H80" s="9">
         <v>2017</v>
@@ -6768,7 +6762,7 @@
         <v>59</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N80" s="4" t="s">
         <v>59</v>
@@ -6792,7 +6786,7 @@
         <v>1</v>
       </c>
       <c r="U80" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="V80" s="4">
         <v>7.7</v>
@@ -6800,25 +6794,25 @@
     </row>
     <row r="81" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C81" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F81" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H81" s="9">
         <v>2017</v>
@@ -6836,7 +6830,7 @@
         <v>59</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N81" s="4" t="s">
         <v>59</v>
@@ -6860,7 +6854,7 @@
         <v>1</v>
       </c>
       <c r="U81" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="V81" s="4">
         <v>7.7</v>
@@ -6868,25 +6862,25 @@
     </row>
     <row r="82" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C82" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F82" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H82" s="9">
         <v>2017</v>
@@ -6904,7 +6898,7 @@
         <v>59</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N82" s="4" t="s">
         <v>59</v>
@@ -6928,7 +6922,7 @@
         <v>1</v>
       </c>
       <c r="U82" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="V82" s="4">
         <v>7.7</v>
@@ -6936,25 +6930,25 @@
     </row>
     <row r="83" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F83" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H83" s="9">
         <v>2017</v>
@@ -6972,7 +6966,7 @@
         <v>59</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N83" s="4" t="s">
         <v>59</v>
@@ -6996,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="U83" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="V83" s="4">
         <v>7.7</v>
@@ -7004,22 +6998,22 @@
     </row>
     <row r="84" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C84" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F84" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>55</v>
@@ -7040,7 +7034,7 @@
         <v>59</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N84" s="4" t="s">
         <v>59</v>
@@ -7064,7 +7058,7 @@
         <v>1</v>
       </c>
       <c r="U84" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V84" s="4">
         <v>5.18</v>
@@ -7072,22 +7066,22 @@
     </row>
     <row r="85" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F85" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>55</v>
@@ -7108,7 +7102,7 @@
         <v>59</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N85" s="4" t="s">
         <v>59</v>
@@ -7132,7 +7126,7 @@
         <v>1</v>
       </c>
       <c r="U85" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V85" s="4">
         <v>5.18</v>
@@ -7140,25 +7134,25 @@
     </row>
     <row r="86" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H86" s="9">
         <v>2017</v>
@@ -7208,25 +7202,25 @@
     </row>
     <row r="87" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H87" s="9">
         <v>2017</v>
@@ -7276,25 +7270,25 @@
     </row>
     <row r="88" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H88" s="9">
         <v>2017</v>
@@ -7344,25 +7338,25 @@
     </row>
     <row r="89" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H89" s="9">
         <v>2017</v>
@@ -7412,25 +7406,25 @@
     </row>
     <row r="90" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H90" s="9">
         <v>2017</v>
@@ -7480,22 +7474,22 @@
     </row>
     <row r="91" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C91" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F91" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>69</v>
@@ -7516,7 +7510,7 @@
         <v>59</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N91" s="4" t="s">
         <v>59</v>
@@ -7540,7 +7534,7 @@
         <v>1</v>
       </c>
       <c r="U91" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V91" s="4">
         <v>7.5</v>
@@ -7548,22 +7542,22 @@
     </row>
     <row r="92" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C92" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F92" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>69</v>
@@ -7584,7 +7578,7 @@
         <v>59</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N92" s="4" t="s">
         <v>59</v>
@@ -7608,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="U92" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V92" s="4">
         <v>7.5</v>
@@ -7616,22 +7610,22 @@
     </row>
     <row r="93" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C93" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F93" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>69</v>
@@ -7652,7 +7646,7 @@
         <v>59</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N93" s="4" t="s">
         <v>59</v>
@@ -7676,7 +7670,7 @@
         <v>1</v>
       </c>
       <c r="U93" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V93" s="4">
         <v>7.5</v>
@@ -7684,22 +7678,22 @@
     </row>
     <row r="94" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C94" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F94" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>69</v>
@@ -7720,7 +7714,7 @@
         <v>59</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N94" s="4" t="s">
         <v>59</v>
@@ -7744,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="U94" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V94" s="4">
         <v>7.5</v>
@@ -7752,22 +7746,22 @@
     </row>
     <row r="95" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C95" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F95" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>74</v>
@@ -7788,7 +7782,7 @@
         <v>59</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N95" s="4" t="s">
         <v>59</v>
@@ -7812,7 +7806,7 @@
         <v>1</v>
       </c>
       <c r="U95" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="V95" s="4">
         <v>16.2</v>
@@ -7820,22 +7814,22 @@
     </row>
     <row r="96" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C96" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F96" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>74</v>
@@ -7856,7 +7850,7 @@
         <v>59</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N96" s="4" t="s">
         <v>59</v>
@@ -7880,7 +7874,7 @@
         <v>1</v>
       </c>
       <c r="U96" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="V96" s="4">
         <v>16.2</v>
@@ -7888,22 +7882,22 @@
     </row>
     <row r="97" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F97" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>74</v>
@@ -7924,7 +7918,7 @@
         <v>59</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N97" s="4" t="s">
         <v>59</v>
@@ -7948,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="U97" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="V97" s="4">
         <v>16.2</v>
@@ -7956,22 +7950,22 @@
     </row>
     <row r="98" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F98" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>78</v>
@@ -7992,7 +7986,7 @@
         <v>59</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N98" s="4" t="s">
         <v>59</v>
@@ -8016,7 +8010,7 @@
         <v>1</v>
       </c>
       <c r="U98" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="V98" s="4">
         <v>35</v>
@@ -8024,22 +8018,22 @@
     </row>
     <row r="99" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F99" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>78</v>
@@ -8060,7 +8054,7 @@
         <v>59</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N99" s="4" t="s">
         <v>59</v>
@@ -8084,7 +8078,7 @@
         <v>1</v>
       </c>
       <c r="U99" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="V99" s="4">
         <v>35</v>
@@ -8092,22 +8086,22 @@
     </row>
     <row r="100" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="F100" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>78</v>
@@ -8128,7 +8122,7 @@
         <v>59</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N100" s="4" t="s">
         <v>59</v>
@@ -8152,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="U100" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="V100" s="4">
         <v>35</v>
@@ -8160,25 +8154,25 @@
     </row>
     <row r="101" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H101" s="10">
         <v>2017</v>
@@ -8228,25 +8222,25 @@
     </row>
     <row r="102" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H102" s="10">
         <v>2017</v>
@@ -8296,25 +8290,25 @@
     </row>
     <row r="103" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H103" s="10">
         <v>2017</v>
@@ -8364,25 +8358,25 @@
     </row>
     <row r="104" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H104" s="10">
         <v>2017</v>
@@ -8432,25 +8426,25 @@
     </row>
     <row r="105" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H105" s="10">
         <v>2017</v>
@@ -8500,25 +8494,25 @@
     </row>
     <row r="106" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H106" s="10">
         <v>2017</v>
@@ -8568,22 +8562,22 @@
     </row>
     <row r="107" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>101</v>
@@ -8636,22 +8630,22 @@
     </row>
     <row r="108" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>101</v>
@@ -8704,22 +8698,22 @@
     </row>
     <row r="109" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>101</v>
@@ -8772,22 +8766,22 @@
     </row>
     <row r="110" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>101</v>
@@ -8840,22 +8834,22 @@
     </row>
     <row r="111" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>101</v>
@@ -8908,22 +8902,22 @@
     </row>
     <row r="112" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>101</v>
@@ -8976,22 +8970,22 @@
     </row>
     <row r="113" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>59</v>
@@ -9044,25 +9038,25 @@
     </row>
     <row r="114" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H114" s="10">
         <v>2017</v>
@@ -9112,25 +9106,25 @@
     </row>
     <row r="115" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H115" s="10">
         <v>2017</v>
@@ -9180,25 +9174,25 @@
     </row>
     <row r="116" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>114</v>
+        <v>273</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H116" s="10">
         <v>2017</v>
@@ -9248,25 +9242,25 @@
     </row>
     <row r="117" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>117</v>
+        <v>273</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H117" s="10">
         <v>2017</v>
@@ -9316,25 +9310,25 @@
     </row>
     <row r="118" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H118" s="10">
         <v>2017</v>
@@ -9384,25 +9378,25 @@
     </row>
     <row r="119" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H119" s="10">
         <v>2017</v>
@@ -9452,25 +9446,25 @@
     </row>
     <row r="120" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H120" s="10">
         <v>2017</v>
@@ -9520,22 +9514,22 @@
     </row>
     <row r="121" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>59</v>
@@ -9588,22 +9582,22 @@
     </row>
     <row r="122" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>59</v>
@@ -9656,22 +9650,22 @@
     </row>
     <row r="123" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>59</v>
@@ -9724,22 +9718,22 @@
     </row>
     <row r="124" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>59</v>
@@ -9792,22 +9786,22 @@
     </row>
     <row r="125" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>59</v>
@@ -9860,22 +9854,22 @@
     </row>
     <row r="126" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>59</v>
@@ -9928,22 +9922,22 @@
     </row>
     <row r="127" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>59</v>
@@ -9996,22 +9990,22 @@
     </row>
     <row r="128" spans="1:22" ht="17" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B128" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E128" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>270</v>
-      </c>
       <c r="F128" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>59</v>
